--- a/excel/Test.xlsx
+++ b/excel/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F326B-415D-44F2-8E1C-A82B43D9D58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4EF20-A51E-4AE0-BD80-4D1160479072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
+    <workbookView xWindow="9510" yWindow="765" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="2" r:id="rId1"/>
@@ -989,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1077,12 +1077,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,6 +1103,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1490,7 +1487,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1499,42 +1496,42 @@
         <v>141</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="45"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="45"/>
+      <c r="C12" s="61"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="45"/>
+      <c r="C13" s="61"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
@@ -1544,91 +1541,91 @@
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="45"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="45"/>
+      <c r="C16" s="61"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="45"/>
+      <c r="C17" s="61"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="45"/>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="61"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1651,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287B7C5-E134-475C-BC54-55098A14F7D7}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1754,300 +1751,300 @@
       <c r="N2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="44" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="50"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51">
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49">
         <v>30000</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49">
         <v>15000</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="A7" s="45">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="52">
         <v>10000</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="A8" s="45">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="59"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="A9" s="45">
         <v>7</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="59"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56" t="s">
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="59"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="A11" s="45">
         <v>14</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="59"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="A12" s="45">
         <v>15</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="59"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="A13" s="45">
         <v>16</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54">
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52">
         <v>20000</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="A14" s="45">
         <v>17</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60">
+      <c r="K14" s="58"/>
+      <c r="L14" s="58">
         <v>20000</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="62"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
@@ -2095,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E5767-586C-4DDB-A17C-D3FD2D5D5253}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B24F50-27DE-4AED-9A6D-A8FA41C74F2B}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2690,7 +2687,7 @@
     <col min="13" max="13" width="8.88671875" style="6"/>
     <col min="14" max="14" width="9.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="34.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
@@ -2737,8 +2734,14 @@
       <c r="N1" s="24">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="11">
+        <v>16</v>
+      </c>
+      <c r="P1" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -3371,12 +3374,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CC379CE-A158-498C-97E6-666A5CEB9174}">
-          <x14:formula1>
-            <xm:f>Dropdowns!$G$2:$G$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09B7ED98-6388-45E3-A527-7017768ED006}">
           <x14:formula1>
             <xm:f>Dropdowns!$H$2:$H$100</xm:f>
@@ -3393,7 +3390,13 @@
           <x14:formula1>
             <xm:f>Dropdowns!$E$2:$E$101</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F22 F24:F1048576</xm:sqref>
+          <xm:sqref>F24:F1048576 F1 F3:F22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CC379CE-A158-498C-97E6-666A5CEB9174}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576 H1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/excel/Test.xlsx
+++ b/excel/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4EF20-A51E-4AE0-BD80-4D1160479072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2258B88-9BB0-43BD-8EEB-25D603BFD3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="765" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
+    <workbookView xWindow="9510" yWindow="765" windowWidth="19380" windowHeight="10380" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="2" r:id="rId1"/>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ABC526-5EA9-40FF-9002-908110C79C6A}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B14" s="9" t="b">
         <f>B4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="61"/>
     </row>
@@ -2666,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B24F50-27DE-4AED-9A6D-A8FA41C74F2B}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/excel/Test.xlsx
+++ b/excel/Test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2258B88-9BB0-43BD-8EEB-25D603BFD3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9B63C-AB9F-47DC-B821-BC8E9F5E3369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="765" windowWidth="19380" windowHeight="10380" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="2" r:id="rId1"/>
-    <sheet name="test cdp" sheetId="7" r:id="rId2"/>
-    <sheet name="Dropdowns" sheetId="3" r:id="rId3"/>
-    <sheet name="amazon product urls" sheetId="6" r:id="rId4"/>
+    <sheet name="Dropdowns" sheetId="3" r:id="rId2"/>
+    <sheet name="Page Elements" sheetId="8" r:id="rId3"/>
+    <sheet name="cdp" sheetId="7" r:id="rId4"/>
+    <sheet name="test amazon product urls" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="209">
   <si>
     <t>Element ID</t>
   </si>
@@ -665,6 +666,45 @@
   </si>
   <si>
     <t>url.html</t>
+  </si>
+  <si>
+    <t>Amazon Landing Page</t>
+  </si>
+  <si>
+    <t>Search Text Box</t>
+  </si>
+  <si>
+    <t>Search Button</t>
+  </si>
+  <si>
+    <t>Product List Page</t>
+  </si>
+  <si>
+    <t>Product Box</t>
+  </si>
+  <si>
+    <t>Next Button</t>
+  </si>
+  <si>
+    <t>Product Page</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>XPATHS</t>
+  </si>
+  <si>
+    <t>ELEMENT</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1103,6 +1143,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
@@ -1423,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ABC526-5EA9-40FF-9002-908110C79C6A}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1503,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1528,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1496,42 +1537,42 @@
         <v>141</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="61"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="61"/>
+      <c r="C9" s="62"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="61"/>
+      <c r="C10" s="62"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="61"/>
+      <c r="C11" s="62"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="61"/>
+      <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="61"/>
+      <c r="C13" s="62"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
@@ -1539,93 +1580,93 @@
       </c>
       <c r="B14" s="9" t="b">
         <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="61"/>
+      <c r="C15" s="62"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="61"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="61"/>
+      <c r="C17" s="62"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="61"/>
+      <c r="C18" s="62"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="61"/>
+      <c r="C19" s="62"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="61"/>
+      <c r="C20" s="62"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="61"/>
+      <c r="C22" s="62"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="61"/>
+      <c r="C23" s="62"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="62"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="61"/>
+      <c r="C25" s="62"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="61"/>
+      <c r="C26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1645,450 +1686,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287B7C5-E134-475C-BC54-55098A14F7D7}">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" customWidth="1"/>
-    <col min="16" max="16" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23">
-        <v>2</v>
-      </c>
-      <c r="C1" s="23">
-        <v>3</v>
-      </c>
-      <c r="D1" s="23">
-        <v>4</v>
-      </c>
-      <c r="E1" s="23">
-        <v>5</v>
-      </c>
-      <c r="F1" s="23">
-        <v>6</v>
-      </c>
-      <c r="G1" s="23">
-        <v>7</v>
-      </c>
-      <c r="H1" s="23">
-        <v>8</v>
-      </c>
-      <c r="I1" s="23">
-        <v>13</v>
-      </c>
-      <c r="J1" s="23">
-        <v>9</v>
-      </c>
-      <c r="K1" s="23">
-        <v>10</v>
-      </c>
-      <c r="L1" s="23">
-        <v>11</v>
-      </c>
-      <c r="M1" s="23">
-        <v>12</v>
-      </c>
-      <c r="N1" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="48"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49">
-        <v>30000</v>
-      </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45">
-        <v>4</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45">
-        <v>5</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="52">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45">
-        <v>6</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="45">
-        <v>7</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="57"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45">
-        <v>9</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="57"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45">
-        <v>14</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45">
-        <v>15</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="57"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="45">
-        <v>16</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52">
-        <v>20000</v>
-      </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45">
-        <v>17</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58">
-        <v>20000</v>
-      </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E1:E2" xr:uid="{1B2C7A47-0C4B-4328-B335-D6327D15FAC9}">
-      <formula1>-1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E3:E14" xr:uid="{0BE88A0A-B36F-4636-818F-39B9DF97FE01}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Action not present in database" xr:uid="{4029F3EE-45F2-4E39-948C-13D06A468036}">
-          <x14:formula1>
-            <xm:f>Dropdowns!$E$2:$E$101</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CF34BEB-0D06-4A66-BCAF-42A5622FE8E6}">
-          <x14:formula1>
-            <xm:f>Dropdowns!$G$2:$G$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E5767-586C-4DDB-A17C-D3FD2D5D5253}">
   <dimension ref="A1:M53"/>
   <sheetViews>
@@ -2662,20 +2259,592 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FBBBD5-480E-429D-A63F-AD8FF92A2D07}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B287B7C5-E134-475C-BC54-55098A14F7D7}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23">
+        <v>4</v>
+      </c>
+      <c r="E1" s="23">
+        <v>5</v>
+      </c>
+      <c r="F1" s="23">
+        <v>6</v>
+      </c>
+      <c r="G1" s="23">
+        <v>7</v>
+      </c>
+      <c r="H1" s="23">
+        <v>8</v>
+      </c>
+      <c r="I1" s="23">
+        <v>13</v>
+      </c>
+      <c r="J1" s="23">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23">
+        <v>10</v>
+      </c>
+      <c r="L1" s="23">
+        <v>11</v>
+      </c>
+      <c r="M1" s="23">
+        <v>12</v>
+      </c>
+      <c r="N1" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="32" t="str">
+        <f>'Page Elements'!B3</f>
+        <v>//input[@id="twotabsearchtextbox"]</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49">
+        <v>30000</v>
+      </c>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="32" t="str">
+        <f>'Page Elements'!B4</f>
+        <v>//input[@id='nav-search-submit-button']</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49">
+        <v>15000</v>
+      </c>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="35" t="str">
+        <f>'Page Elements'!B8</f>
+        <v>.s-pagination-next</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="52">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="38" t="str">
+        <f>'Page Elements'!B7</f>
+        <v>//span[@class='a-size-medium a-color-base a-text-normal']</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="57"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="57"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="45">
+        <v>14</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="57"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45">
+        <v>15</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="57"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45">
+        <v>16</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="35" t="str">
+        <f>'Page Elements'!B8</f>
+        <v>.s-pagination-next</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52">
+        <v>20000</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="45">
+        <v>17</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="35" t="str">
+        <f>'Page Elements'!B8</f>
+        <v>.s-pagination-next</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58">
+        <v>20000</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="60"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E1:E2" xr:uid="{1B2C7A47-0C4B-4328-B335-D6327D15FAC9}">
+      <formula1>-1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E3:E14" xr:uid="{0BE88A0A-B36F-4636-818F-39B9DF97FE01}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Action not present in database" xr:uid="{4029F3EE-45F2-4E39-948C-13D06A468036}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$E$2:$E$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CF34BEB-0D06-4A66-BCAF-42A5622FE8E6}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B24F50-27DE-4AED-9A6D-A8FA41C74F2B}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="6" customWidth="1"/>
     <col min="5" max="5" width="6.21875" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -2821,8 +2990,9 @@
         <v>49</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
-        <v>52</v>
+      <c r="D4" s="32" t="str">
+        <f>'Page Elements'!B3</f>
+        <v>//input[@id="twotabsearchtextbox"]</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
@@ -2851,8 +3021,9 @@
         <v>50</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>53</v>
+      <c r="D5" s="32" t="str">
+        <f>'Page Elements'!B4</f>
+        <v>//input[@id='nav-search-submit-button']</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
@@ -2901,8 +3072,9 @@
         <v>115</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
-        <v>118</v>
+      <c r="D7" s="35" t="str">
+        <f>'Page Elements'!B8</f>
+        <v>.s-pagination-next</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -2951,8 +3123,9 @@
         <v>120</v>
       </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>67</v>
+      <c r="D9" s="38" t="str">
+        <f>'Page Elements'!B7</f>
+        <v>//span[@class='a-size-medium a-color-base a-text-normal']</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="37"/>
@@ -3049,8 +3222,9 @@
         <v>171</v>
       </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>172</v>
+      <c r="D13" s="38" t="str">
+        <f>'Page Elements'!B11</f>
+        <v>#productTitle</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="37" t="s">
@@ -3085,8 +3259,9 @@
         <v>174</v>
       </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>175</v>
+      <c r="D14" s="38" t="str">
+        <f>'Page Elements'!B13</f>
+        <v>#acrCustomerReviewText</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="37" t="s">
@@ -3119,8 +3294,9 @@
         <v>177</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>192</v>
+      <c r="D15" s="38" t="str">
+        <f>'Page Elements'!B12</f>
+        <v>//div[@class='a-section a-spacing-none aok-align-center aok-relative']</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="37" t="s">
@@ -3153,8 +3329,9 @@
         <v>184</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>179</v>
+      <c r="D16" s="38" t="str">
+        <f>'Page Elements'!B14</f>
+        <v>#feature-bullets</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="37" t="s">
@@ -3187,8 +3364,9 @@
         <v>185</v>
       </c>
       <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
-        <v>186</v>
+      <c r="D17" s="38" t="str">
+        <f>'Page Elements'!B15</f>
+        <v>#tech</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="37" t="s">
@@ -3223,8 +3401,9 @@
         <v>181</v>
       </c>
       <c r="C18" s="37"/>
-      <c r="D18" s="38" t="s">
-        <v>182</v>
+      <c r="D18" s="38" t="str">
+        <f>'Page Elements'!B16</f>
+        <v>#prodDetails</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="37" t="s">
@@ -3303,8 +3482,9 @@
         <v>114</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
-        <v>118</v>
+      <c r="D21" s="35" t="str">
+        <f>'Page Elements'!B8</f>
+        <v>.s-pagination-next</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35" t="s">
@@ -3331,8 +3511,9 @@
         <v>116</v>
       </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
-        <v>118</v>
+      <c r="D22" s="35" t="str">
+        <f>'Page Elements'!B8</f>
+        <v>.s-pagination-next</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -3355,12 +3536,27 @@
       <c r="O22" s="35"/>
       <c r="P22" s="36"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>194</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3574,7 @@
           <x14:formula1>
             <xm:f>Dropdowns!$H$2:$H$100</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I1048576</xm:sqref>
+          <xm:sqref>I3:I22 I24:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C770ABE9-6C12-46BC-81A3-0710E161329F}">
           <x14:formula1>
@@ -3396,7 +3592,7 @@
           <x14:formula1>
             <xm:f>Dropdowns!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H1048576 H1</xm:sqref>
+          <xm:sqref>H1 H3:H22 H24:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/excel/Test.xlsx
+++ b/excel/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\WebscrapingSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9B63C-AB9F-47DC-B821-BC8E9F5E3369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA3FF5-16B6-43A1-921D-A28FF714DCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{60DF07E5-7609-4B0F-8A10-49DF47D960AF}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Details" sheetId="2" r:id="rId1"/>
     <sheet name="Dropdowns" sheetId="3" r:id="rId2"/>
     <sheet name="Page Elements" sheetId="8" r:id="rId3"/>
-    <sheet name="cdp" sheetId="7" r:id="rId4"/>
-    <sheet name="test amazon product urls" sheetId="6" r:id="rId5"/>
+    <sheet name="amazon product urls" sheetId="7" r:id="rId4"/>
+    <sheet name="test amazon product details" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,7 +1690,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N15"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2836,7 +2836,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
